--- a/T-SQL/01_Normalformen/Übungen.xlsx
+++ b/T-SQL/01_Normalformen/Übungen.xlsx
@@ -1050,25 +1050,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000033B4BB3E5BA847BBBC5FB871012CF7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56c810e4dea5f2d884deea406cd48935">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e8bf2d9-7f26-4ed4-becd-a6cfeb3c562d" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77b2b24a196ecbf216bad1f92665abf2" ns2:_="" ns3:_="">
-    <xsd:import namespace="2e8bf2d9-7f26-4ed4-becd-a6cfeb3c562d"/>
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000F7C656055123B45BB787B88968EF024" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5cd7478814b832f405de2f916bd5a247">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="498b95f8-cdd1-4501-8f6f-e5c7d75d9394" xmlns:ns3="16e45451-98aa-44ec-b98a-365c2a243a00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62ec28b5eb46b98cc302507af1f4dde4" ns2:_="" ns3:_="">
+    <xsd:import namespace="498b95f8-cdd1-4501-8f6f-e5c7d75d9394"/>
+    <xsd:import namespace="16e45451-98aa-44ec-b98a-365c2a243a00"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:Vortr_x00e4_ge" minOccurs="0"/>
-                <xsd:element ref="ns3:IconOverlay" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1076,61 +1074,57 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2e8bf2d9-7f26-4ed4-becd-a6cfeb3c562d" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="498b95f8-cdd1-4501-8f6f-e5c7d75d9394" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Vortr_x00e4_ge" ma:index="8" nillable="true" ma:displayName="Vorträge" ma:internalName="Vortr_x00e4_ge">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="31094a19-0ae0-4f46-a430-10e60caa26b3" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v4" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="16e45451-98aa-44ec-b98a-365c2a243a00" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="IconOverlay" ma:index="9" nillable="true" ma:displayName="IconOverlay" ma:hidden="true" ma:internalName="IconOverlay">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
+    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1794a46a-161f-4e8f-96aa-563a514aa792}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="16e45451-98aa-44ec-b98a-365c2a243a00">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1142,8 +1136,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1244,14 +1238,16 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Vortr_x00e4_ge xmlns="2e8bf2d9-7f26-4ed4-becd-a6cfeb3c562d" xsi:nil="true"/>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <TaxCatchAll xmlns="16e45451-98aa-44ec-b98a-365c2a243a00" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="498b95f8-cdd1-4501-8f6f-e5c7d75d9394">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE3D91D-85A8-4D3E-B8F3-5B18E49AEAE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E622E60F-539A-4BD2-A313-7B5F04E1A0B8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
